--- a/采集清单.xlsx
+++ b/采集清单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="350">
   <si>
     <t>媒体名单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,993 +247,1004 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>北青网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财经天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济参考网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际金融报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方财富网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和讯网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国经济网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36氪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融时报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京华网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澎拜新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生意社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资快报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券之星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾瑞网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券市场红周刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海有色网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华尔街见闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国产经新闻网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新三板在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华讯财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同花顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞迅财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方都市报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大公财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资快报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德州之窗 8597</t>
+  </si>
+  <si>
+    <t>股城网 8542</t>
+  </si>
+  <si>
+    <t>中金在线论坛 8430</t>
+  </si>
+  <si>
+    <t>北国网 8412</t>
+  </si>
+  <si>
+    <t>中国山东网 8100</t>
+  </si>
+  <si>
+    <t>东莞阳光网 8090</t>
+  </si>
+  <si>
+    <t>江苏都市网 8073</t>
+  </si>
+  <si>
+    <t>西部网 8045</t>
+  </si>
+  <si>
+    <t>东营网论坛 8040</t>
+  </si>
+  <si>
+    <t>神州学人 8035</t>
+  </si>
+  <si>
+    <t>时代焦点网 8007</t>
+  </si>
+  <si>
+    <t>商洛之窗 7916</t>
+  </si>
+  <si>
+    <t>攀枝花网 7858</t>
+  </si>
+  <si>
+    <t>淄博新闻网 7606</t>
+  </si>
+  <si>
+    <t>中国兰州网 7540</t>
+  </si>
+  <si>
+    <t>华商网 7526</t>
+  </si>
+  <si>
+    <t>中国宁波网 7389</t>
+  </si>
+  <si>
+    <t>腾讯大渝网 7326</t>
+  </si>
+  <si>
+    <t>搜狐博客 7261</t>
+  </si>
+  <si>
+    <t>商企网 7023</t>
+  </si>
+  <si>
+    <t>今晚网 6899</t>
+  </si>
+  <si>
+    <t>人民网天津视窗 6887</t>
+  </si>
+  <si>
+    <t>南方网 6592</t>
+  </si>
+  <si>
+    <t>咸宁新闻网 6401</t>
+  </si>
+  <si>
+    <t>中国黄金投资网 6346</t>
+  </si>
+  <si>
+    <t>白银网 6267</t>
+  </si>
+  <si>
+    <t>新京报 6265</t>
+  </si>
+  <si>
+    <t>东方日报 6069</t>
+  </si>
+  <si>
+    <t>凤凰网湖北频道 5986</t>
+  </si>
+  <si>
+    <t>八桂网 5830</t>
+  </si>
+  <si>
+    <t>新浪博客 5796</t>
+  </si>
+  <si>
+    <t>中国时刻网 5790</t>
+  </si>
+  <si>
+    <t>云南在线 5752</t>
+  </si>
+  <si>
+    <t>青海羚网 5738</t>
+  </si>
+  <si>
+    <t>天津视窗 5523</t>
+  </si>
+  <si>
+    <t>胶东在线 5471</t>
+  </si>
+  <si>
+    <t>泗洪风情 5363</t>
+  </si>
+  <si>
+    <t>无锡新传媒网 5334</t>
+  </si>
+  <si>
+    <t>腾讯大浙网 5330</t>
+  </si>
+  <si>
+    <t>营口新闻网 5307</t>
+  </si>
+  <si>
+    <t>中新网江西新闻 5111</t>
+  </si>
+  <si>
+    <t>灰信网 5034</t>
+  </si>
+  <si>
+    <t>中工网 5031</t>
+  </si>
+  <si>
+    <t>乐云网 4933</t>
+  </si>
+  <si>
+    <t>博讯新闻网 4884</t>
+  </si>
+  <si>
+    <t>百家财富网 4817</t>
+  </si>
+  <si>
+    <t>厦门网 4815</t>
+  </si>
+  <si>
+    <t>阜新新网 4772</t>
+  </si>
+  <si>
+    <t>华股财经 4735</t>
+  </si>
+  <si>
+    <t>中国家家网 4705</t>
+  </si>
+  <si>
+    <t>海南网 4703</t>
+  </si>
+  <si>
+    <t>四川新闻网 4696</t>
+  </si>
+  <si>
+    <t>伊犁新闻网 4648</t>
+  </si>
+  <si>
+    <t>地宝网 4575</t>
+  </si>
+  <si>
+    <t>西江网 4521</t>
+  </si>
+  <si>
+    <t>日照网 4518</t>
+  </si>
+  <si>
+    <t>丽水网 4495</t>
+  </si>
+  <si>
+    <t>澳亚卫视 4421</t>
+  </si>
+  <si>
+    <t>内蒙古新闻网 4419</t>
+  </si>
+  <si>
+    <t>每日甘肃网 4419</t>
+  </si>
+  <si>
+    <t>腾讯大粤网 4394</t>
+  </si>
+  <si>
+    <t>陕西传媒网 4363</t>
+  </si>
+  <si>
+    <t>半岛新闻 4329</t>
+  </si>
+  <si>
+    <t>中国网福建 4314</t>
+  </si>
+  <si>
+    <t>中青网 4205</t>
+  </si>
+  <si>
+    <t>中国哈尔滨信息网 4177</t>
+  </si>
+  <si>
+    <t>财富赢家网 4157</t>
+  </si>
+  <si>
+    <t>西南信息港 4015</t>
+  </si>
+  <si>
+    <t>聊城新闻网 3959</t>
+  </si>
+  <si>
+    <t>海南在线 3934</t>
+  </si>
+  <si>
+    <t>腾讯大楚网 3918</t>
+  </si>
+  <si>
+    <t>联合早报网 3897</t>
+  </si>
+  <si>
+    <t>中国资本证券网 3877</t>
+  </si>
+  <si>
+    <t>财库股票网 3849</t>
+  </si>
+  <si>
+    <t>婺城新闻网 3784</t>
+  </si>
+  <si>
+    <t>今日新闻（台湾） 3769</t>
+  </si>
+  <si>
+    <t>四川广播电视台 3756</t>
+  </si>
+  <si>
+    <t>新北青网 3653</t>
+  </si>
+  <si>
+    <t>沈阳论坛 3511</t>
+  </si>
+  <si>
+    <t>ZAKER客户端 3489</t>
+  </si>
+  <si>
+    <t>福建新闻网 3400</t>
+  </si>
+  <si>
+    <t>西祠胡同 3229</t>
+  </si>
+  <si>
+    <t>南方网科技金融 3194</t>
+  </si>
+  <si>
+    <t>新浪山西 3189</t>
+  </si>
+  <si>
+    <t>东方早报网 3185</t>
+  </si>
+  <si>
+    <t>台海网 3171</t>
+  </si>
+  <si>
+    <t>湖北新闻网 3162</t>
+  </si>
+  <si>
+    <t>潍坊新闻网 3154</t>
+  </si>
+  <si>
+    <t>大参考论坛 3137</t>
+  </si>
+  <si>
+    <t>重庆之窗 3075</t>
+  </si>
+  <si>
+    <t>环首都网 3023</t>
+  </si>
+  <si>
+    <t>杭州网 3022</t>
+  </si>
+  <si>
+    <t>新疆龟兹网 3005</t>
+  </si>
+  <si>
+    <t>新华网山东频道 2942</t>
+  </si>
+  <si>
+    <t>新华网重庆频道 2938</t>
+  </si>
+  <si>
+    <t>特网 2895</t>
+  </si>
+  <si>
+    <t>韶关新闻网 2890</t>
+  </si>
+  <si>
+    <t>瑞安论坛 2849</t>
+  </si>
+  <si>
+    <t>凯迪社区 2848</t>
+  </si>
+  <si>
+    <t>新华网浙江频道 2828</t>
+  </si>
+  <si>
+    <t>东莞信息港 2827</t>
+  </si>
+  <si>
+    <t>星辰在线 2825</t>
+  </si>
+  <si>
+    <t>多维新闻网 2822</t>
+  </si>
+  <si>
+    <t>中评网 2818</t>
+  </si>
+  <si>
+    <t>BTV在线 2815</t>
+  </si>
+  <si>
+    <t>商业中国网 2750</t>
+  </si>
+  <si>
+    <t>极动感CTM 2685</t>
+  </si>
+  <si>
+    <t>江苏新闻网 2668</t>
+  </si>
+  <si>
+    <t>杭州日报 2640</t>
+  </si>
+  <si>
+    <t>深圳新闻网 2623</t>
+  </si>
+  <si>
+    <t>山西信合网 2584</t>
+  </si>
+  <si>
+    <t>盛大新闻网 2579</t>
+  </si>
+  <si>
+    <t>中山网 2561</t>
+  </si>
+  <si>
+    <t>新浪河南 2526</t>
+  </si>
+  <si>
+    <t>青海新闻网 2484</t>
+  </si>
+  <si>
+    <t>桐庐新闻网 2418</t>
+  </si>
+  <si>
+    <t>1M4新闻网 2407</t>
+  </si>
+  <si>
+    <t>和讯评论 2369</t>
+  </si>
+  <si>
+    <t>莱芜在线 2361</t>
+  </si>
+  <si>
+    <t>光通讯网 2357</t>
+  </si>
+  <si>
+    <t>广东电视台 2332</t>
+  </si>
+  <si>
+    <t>江苏音符 2329</t>
+  </si>
+  <si>
+    <t>新阳泉网 2313</t>
+  </si>
+  <si>
+    <t>威海信息港 2311</t>
+  </si>
+  <si>
+    <t>吐鲁番网 2289</t>
+  </si>
+  <si>
+    <t>大同新闻网 2288</t>
+  </si>
+  <si>
+    <t>世界服装鞋帽网 2275</t>
+  </si>
+  <si>
+    <t>龙虎网 2226</t>
+  </si>
+  <si>
+    <t>麒麟网 2219</t>
+  </si>
+  <si>
+    <t>西部商报网 2205</t>
+  </si>
+  <si>
+    <t>中国江门网 2196</t>
+  </si>
+  <si>
+    <t>大江论坛 2195</t>
+  </si>
+  <si>
+    <t>青岛新闻网 2155</t>
+  </si>
+  <si>
+    <t>东方论坛 2142</t>
+  </si>
+  <si>
+    <t>临沂信息港 2105</t>
+  </si>
+  <si>
+    <t>中国贸易新闻网 2099</t>
+  </si>
+  <si>
+    <t>梅州网 2082</t>
+  </si>
+  <si>
+    <t>重庆汇融网 2064</t>
+  </si>
+  <si>
+    <t>中国海事服务网 2052</t>
+  </si>
+  <si>
+    <t>华南网 2032</t>
+  </si>
+  <si>
+    <t>浙江在线 2011</t>
+  </si>
+  <si>
+    <t>宁波东方热线 2007</t>
+  </si>
+  <si>
+    <t>丹东新闻网 2006</t>
+  </si>
+  <si>
+    <t>香港文匯報 2004</t>
+  </si>
+  <si>
+    <t>香港成报 1995</t>
+  </si>
+  <si>
+    <t>每日甘肃 1940</t>
+  </si>
+  <si>
+    <t>重庆商报 1938</t>
+  </si>
+  <si>
+    <t>天津在线 1931</t>
+  </si>
+  <si>
+    <t>金华新闻网 1900</t>
+  </si>
+  <si>
+    <t>义乌新闻网 1876</t>
+  </si>
+  <si>
+    <t>北京农村商业银行 1872</t>
+  </si>
+  <si>
+    <t>新北京特色论坛 1865</t>
+  </si>
+  <si>
+    <t>浦江新闻网 1854</t>
+  </si>
+  <si>
+    <t>新民晚报 1834</t>
+  </si>
+  <si>
+    <t>京津网 1825</t>
+  </si>
+  <si>
+    <t>东北在线 1806</t>
+  </si>
+  <si>
+    <t>丹阳翼网论坛 1769</t>
+  </si>
+  <si>
+    <t>财经中国网 1766</t>
+  </si>
+  <si>
+    <t>半岛网 1762</t>
+  </si>
+  <si>
+    <t>武义新闻网 1758</t>
+  </si>
+  <si>
+    <t>中国广播网 1758</t>
+  </si>
+  <si>
+    <t>凤凰陕西 1756</t>
+  </si>
+  <si>
+    <t>石家庄新闻网 1748</t>
+  </si>
+  <si>
+    <t>平顶山新闻网 1739</t>
+  </si>
+  <si>
+    <t>古汉台网 1729</t>
+  </si>
+  <si>
+    <t>GOGO攀枝花 1713</t>
+  </si>
+  <si>
+    <t>华声在线 1674</t>
+  </si>
+  <si>
+    <t>和讯博客 1634</t>
+  </si>
+  <si>
+    <t>海南资讯 1626</t>
+  </si>
+  <si>
+    <t>中新网广西新闻 1611</t>
+  </si>
+  <si>
+    <t>慧博投研资讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财派网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联星空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国江苏网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方财富网股吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发展论坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞时间网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新民网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融界论坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安热线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱讯网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解放牛网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>益盟操盘手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中工网论坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温州网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">东方网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红豆社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天山网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经传多盈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财界网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淄博信息港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天涯社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国青年网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥一网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国质检网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安青网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西新闻网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿福台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海视窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南都市网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同花顺金融服务网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐鲁网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日头条客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">金华之窗 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">解放网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">广州都市网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">千华网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱芜热线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">沈阳网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中山视野网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智通财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格隆汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿思达克财经网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映象网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建之窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北新闻网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舜网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生意社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">北方网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新秦调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">齐鲁热线 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3G门户 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国甘肃网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">重庆晨网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">大众网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值中国网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">东南网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">牧野论坛 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大连在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">财富在线 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">淮北新闻网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">财急送网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中原网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中国债券信息网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东新闻网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">钢联资讯 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中安在线 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">上海热线 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">路透中文网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">西安网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芜湖新闻网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">水母网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">华龙网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">贵阳之窗网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">四川在线 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">新华报业网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">农博网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今讯网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">成网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://finance.sina.com.cn/</t>
+  </si>
+  <si>
+    <t>新闻地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>一财网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北青网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财经天下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济参考网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国际金融报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网易财经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜狐财经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯财经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方财富网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和讯网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国经济网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中金在线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金融界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36氪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金融时报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京华网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>澎拜新闻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生意社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资快报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证券之星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凤凰财经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾瑞网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证券市场红周刊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海有色网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华尔街见闻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国产经新闻网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新三板在线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老虎财经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华讯财经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同花顺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞迅财经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方都市报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大公财经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资快报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德州之窗 8597</t>
-  </si>
-  <si>
-    <t>股城网 8542</t>
-  </si>
-  <si>
-    <t>中金在线论坛 8430</t>
-  </si>
-  <si>
-    <t>北国网 8412</t>
-  </si>
-  <si>
-    <t>中国山东网 8100</t>
-  </si>
-  <si>
-    <t>东莞阳光网 8090</t>
-  </si>
-  <si>
-    <t>江苏都市网 8073</t>
-  </si>
-  <si>
-    <t>西部网 8045</t>
-  </si>
-  <si>
-    <t>东营网论坛 8040</t>
-  </si>
-  <si>
-    <t>神州学人 8035</t>
-  </si>
-  <si>
-    <t>时代焦点网 8007</t>
-  </si>
-  <si>
-    <t>商洛之窗 7916</t>
-  </si>
-  <si>
-    <t>攀枝花网 7858</t>
-  </si>
-  <si>
-    <t>淄博新闻网 7606</t>
-  </si>
-  <si>
-    <t>中国兰州网 7540</t>
-  </si>
-  <si>
-    <t>华商网 7526</t>
-  </si>
-  <si>
-    <t>中国宁波网 7389</t>
-  </si>
-  <si>
-    <t>腾讯大渝网 7326</t>
-  </si>
-  <si>
-    <t>搜狐博客 7261</t>
-  </si>
-  <si>
-    <t>商企网 7023</t>
-  </si>
-  <si>
-    <t>今晚网 6899</t>
-  </si>
-  <si>
-    <t>人民网天津视窗 6887</t>
-  </si>
-  <si>
-    <t>南方网 6592</t>
-  </si>
-  <si>
-    <t>咸宁新闻网 6401</t>
-  </si>
-  <si>
-    <t>中国黄金投资网 6346</t>
-  </si>
-  <si>
-    <t>白银网 6267</t>
-  </si>
-  <si>
-    <t>新京报 6265</t>
-  </si>
-  <si>
-    <t>东方日报 6069</t>
-  </si>
-  <si>
-    <t>凤凰网湖北频道 5986</t>
-  </si>
-  <si>
-    <t>八桂网 5830</t>
-  </si>
-  <si>
-    <t>新浪博客 5796</t>
-  </si>
-  <si>
-    <t>中国时刻网 5790</t>
-  </si>
-  <si>
-    <t>云南在线 5752</t>
-  </si>
-  <si>
-    <t>青海羚网 5738</t>
-  </si>
-  <si>
-    <t>天津视窗 5523</t>
-  </si>
-  <si>
-    <t>胶东在线 5471</t>
-  </si>
-  <si>
-    <t>泗洪风情 5363</t>
-  </si>
-  <si>
-    <t>无锡新传媒网 5334</t>
-  </si>
-  <si>
-    <t>腾讯大浙网 5330</t>
-  </si>
-  <si>
-    <t>营口新闻网 5307</t>
-  </si>
-  <si>
-    <t>中新网江西新闻 5111</t>
-  </si>
-  <si>
-    <t>灰信网 5034</t>
-  </si>
-  <si>
-    <t>中工网 5031</t>
-  </si>
-  <si>
-    <t>乐云网 4933</t>
-  </si>
-  <si>
-    <t>博讯新闻网 4884</t>
-  </si>
-  <si>
-    <t>百家财富网 4817</t>
-  </si>
-  <si>
-    <t>厦门网 4815</t>
-  </si>
-  <si>
-    <t>阜新新网 4772</t>
-  </si>
-  <si>
-    <t>华股财经 4735</t>
-  </si>
-  <si>
-    <t>中国家家网 4705</t>
-  </si>
-  <si>
-    <t>海南网 4703</t>
-  </si>
-  <si>
-    <t>四川新闻网 4696</t>
-  </si>
-  <si>
-    <t>伊犁新闻网 4648</t>
-  </si>
-  <si>
-    <t>地宝网 4575</t>
-  </si>
-  <si>
-    <t>西江网 4521</t>
-  </si>
-  <si>
-    <t>日照网 4518</t>
-  </si>
-  <si>
-    <t>丽水网 4495</t>
-  </si>
-  <si>
-    <t>澳亚卫视 4421</t>
-  </si>
-  <si>
-    <t>内蒙古新闻网 4419</t>
-  </si>
-  <si>
-    <t>每日甘肃网 4419</t>
-  </si>
-  <si>
-    <t>腾讯大粤网 4394</t>
-  </si>
-  <si>
-    <t>陕西传媒网 4363</t>
-  </si>
-  <si>
-    <t>半岛新闻 4329</t>
-  </si>
-  <si>
-    <t>中国网福建 4314</t>
-  </si>
-  <si>
-    <t>中青网 4205</t>
-  </si>
-  <si>
-    <t>中国哈尔滨信息网 4177</t>
-  </si>
-  <si>
-    <t>财富赢家网 4157</t>
-  </si>
-  <si>
-    <t>西南信息港 4015</t>
-  </si>
-  <si>
-    <t>聊城新闻网 3959</t>
-  </si>
-  <si>
-    <t>海南在线 3934</t>
-  </si>
-  <si>
-    <t>腾讯大楚网 3918</t>
-  </si>
-  <si>
-    <t>联合早报网 3897</t>
-  </si>
-  <si>
-    <t>中国资本证券网 3877</t>
-  </si>
-  <si>
-    <t>财库股票网 3849</t>
-  </si>
-  <si>
-    <t>婺城新闻网 3784</t>
-  </si>
-  <si>
-    <t>今日新闻（台湾） 3769</t>
-  </si>
-  <si>
-    <t>四川广播电视台 3756</t>
-  </si>
-  <si>
-    <t>新北青网 3653</t>
-  </si>
-  <si>
-    <t>沈阳论坛 3511</t>
-  </si>
-  <si>
-    <t>ZAKER客户端 3489</t>
-  </si>
-  <si>
-    <t>福建新闻网 3400</t>
-  </si>
-  <si>
-    <t>西祠胡同 3229</t>
-  </si>
-  <si>
-    <t>南方网科技金融 3194</t>
-  </si>
-  <si>
-    <t>新浪山西 3189</t>
-  </si>
-  <si>
-    <t>东方早报网 3185</t>
-  </si>
-  <si>
-    <t>台海网 3171</t>
-  </si>
-  <si>
-    <t>湖北新闻网 3162</t>
-  </si>
-  <si>
-    <t>潍坊新闻网 3154</t>
-  </si>
-  <si>
-    <t>大参考论坛 3137</t>
-  </si>
-  <si>
-    <t>重庆之窗 3075</t>
-  </si>
-  <si>
-    <t>环首都网 3023</t>
-  </si>
-  <si>
-    <t>杭州网 3022</t>
-  </si>
-  <si>
-    <t>新疆龟兹网 3005</t>
-  </si>
-  <si>
-    <t>新华网山东频道 2942</t>
-  </si>
-  <si>
-    <t>新华网重庆频道 2938</t>
-  </si>
-  <si>
-    <t>特网 2895</t>
-  </si>
-  <si>
-    <t>韶关新闻网 2890</t>
-  </si>
-  <si>
-    <t>瑞安论坛 2849</t>
-  </si>
-  <si>
-    <t>凯迪社区 2848</t>
-  </si>
-  <si>
-    <t>新华网浙江频道 2828</t>
-  </si>
-  <si>
-    <t>东莞信息港 2827</t>
-  </si>
-  <si>
-    <t>星辰在线 2825</t>
-  </si>
-  <si>
-    <t>多维新闻网 2822</t>
-  </si>
-  <si>
-    <t>中评网 2818</t>
-  </si>
-  <si>
-    <t>BTV在线 2815</t>
-  </si>
-  <si>
-    <t>商业中国网 2750</t>
-  </si>
-  <si>
-    <t>极动感CTM 2685</t>
-  </si>
-  <si>
-    <t>江苏新闻网 2668</t>
-  </si>
-  <si>
-    <t>杭州日报 2640</t>
-  </si>
-  <si>
-    <t>深圳新闻网 2623</t>
-  </si>
-  <si>
-    <t>山西信合网 2584</t>
-  </si>
-  <si>
-    <t>盛大新闻网 2579</t>
-  </si>
-  <si>
-    <t>中山网 2561</t>
-  </si>
-  <si>
-    <t>新浪河南 2526</t>
-  </si>
-  <si>
-    <t>青海新闻网 2484</t>
-  </si>
-  <si>
-    <t>桐庐新闻网 2418</t>
-  </si>
-  <si>
-    <t>1M4新闻网 2407</t>
-  </si>
-  <si>
-    <t>和讯评论 2369</t>
-  </si>
-  <si>
-    <t>莱芜在线 2361</t>
-  </si>
-  <si>
-    <t>光通讯网 2357</t>
-  </si>
-  <si>
-    <t>广东电视台 2332</t>
-  </si>
-  <si>
-    <t>江苏音符 2329</t>
-  </si>
-  <si>
-    <t>新阳泉网 2313</t>
-  </si>
-  <si>
-    <t>威海信息港 2311</t>
-  </si>
-  <si>
-    <t>吐鲁番网 2289</t>
-  </si>
-  <si>
-    <t>大同新闻网 2288</t>
-  </si>
-  <si>
-    <t>世界服装鞋帽网 2275</t>
-  </si>
-  <si>
-    <t>龙虎网 2226</t>
-  </si>
-  <si>
-    <t>麒麟网 2219</t>
-  </si>
-  <si>
-    <t>西部商报网 2205</t>
-  </si>
-  <si>
-    <t>中国江门网 2196</t>
-  </si>
-  <si>
-    <t>大江论坛 2195</t>
-  </si>
-  <si>
-    <t>青岛新闻网 2155</t>
-  </si>
-  <si>
-    <t>东方论坛 2142</t>
-  </si>
-  <si>
-    <t>临沂信息港 2105</t>
-  </si>
-  <si>
-    <t>中国贸易新闻网 2099</t>
-  </si>
-  <si>
-    <t>梅州网 2082</t>
-  </si>
-  <si>
-    <t>重庆汇融网 2064</t>
-  </si>
-  <si>
-    <t>中国海事服务网 2052</t>
-  </si>
-  <si>
-    <t>华南网 2032</t>
-  </si>
-  <si>
-    <t>浙江在线 2011</t>
-  </si>
-  <si>
-    <t>宁波东方热线 2007</t>
-  </si>
-  <si>
-    <t>丹东新闻网 2006</t>
-  </si>
-  <si>
-    <t>香港文匯報 2004</t>
-  </si>
-  <si>
-    <t>香港成报 1995</t>
-  </si>
-  <si>
-    <t>每日甘肃 1940</t>
-  </si>
-  <si>
-    <t>重庆商报 1938</t>
-  </si>
-  <si>
-    <t>天津在线 1931</t>
-  </si>
-  <si>
-    <t>金华新闻网 1900</t>
-  </si>
-  <si>
-    <t>义乌新闻网 1876</t>
-  </si>
-  <si>
-    <t>北京农村商业银行 1872</t>
-  </si>
-  <si>
-    <t>新北京特色论坛 1865</t>
-  </si>
-  <si>
-    <t>浦江新闻网 1854</t>
-  </si>
-  <si>
-    <t>新民晚报 1834</t>
-  </si>
-  <si>
-    <t>京津网 1825</t>
-  </si>
-  <si>
-    <t>东北在线 1806</t>
-  </si>
-  <si>
-    <t>丹阳翼网论坛 1769</t>
-  </si>
-  <si>
-    <t>财经中国网 1766</t>
-  </si>
-  <si>
-    <t>半岛网 1762</t>
-  </si>
-  <si>
-    <t>武义新闻网 1758</t>
-  </si>
-  <si>
-    <t>中国广播网 1758</t>
-  </si>
-  <si>
-    <t>凤凰陕西 1756</t>
-  </si>
-  <si>
-    <t>石家庄新闻网 1748</t>
-  </si>
-  <si>
-    <t>平顶山新闻网 1739</t>
-  </si>
-  <si>
-    <t>古汉台网 1729</t>
-  </si>
-  <si>
-    <t>GOGO攀枝花 1713</t>
-  </si>
-  <si>
-    <t>华声在线 1674</t>
-  </si>
-  <si>
-    <t>和讯博客 1634</t>
-  </si>
-  <si>
-    <t>海南资讯 1626</t>
-  </si>
-  <si>
-    <t>中新网广西新闻 1611</t>
-  </si>
-  <si>
-    <t>慧博投研资讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财派网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>互联星空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国江苏网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方财富网股吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发展论坛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东莞时间网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新民网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金融界论坛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西安热线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱讯网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解放牛网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>益盟操盘手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长城网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中工网论坛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温州网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">东方网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红豆社区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天山网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经传多盈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财界网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淄博信息港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天涯社区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国青年网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥一网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国质检网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安青网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云南网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广西新闻网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿福台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海视窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海南都市网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同花顺金融服务网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>齐鲁网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日头条客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">金华之窗 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">解放网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">广州都市网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">千华网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莱芜热线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">沈阳网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">中山视野网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智通财经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格隆汇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿思达克财经网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>映象网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福建之窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东北新闻网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舜网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生意社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">北方网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新秦调查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">齐鲁热线 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3G门户 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国甘肃网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">重庆晨网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">大众网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价值中国网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">东南网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">牧野论坛 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大连在线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">财富在线 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">淮北新闻网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">财急送网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中原网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">中国债券信息网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东新闻网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">钢联资讯 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">中安在线 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">上海热线 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看天下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">路透中文网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">西安网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芜湖新闻网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">水母网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">华龙网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">贵阳之窗网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">四川在线 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">新华报业网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">农博网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">今讯网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">成网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页地址</t>
+    <t>http://www.yicai.com/news/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1241,7 +1252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1320,6 +1331,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1365,15 +1385,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1413,10 +1436,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1957,7 +1984,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -1992,13 +2019,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83.109375" customWidth="1"/>
+    <col min="3" max="3" width="71.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2006,7 +2034,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>346</v>
+        <v>345</v>
+      </c>
+      <c r="C1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2025,6 +2056,9 @@
       <c r="A4" s="12" t="s">
         <v>45</v>
       </c>
+      <c r="B4" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2083,196 +2117,202 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>57</v>
+        <v>348</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2298,7 +2338,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>37</v>
@@ -2309,1247 +2349,1247 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/采集清单.xlsx
+++ b/采集清单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="358">
   <si>
     <t>媒体名单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,11 +279,976 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>中国经济网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36氪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融时报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京华网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澎拜新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生意社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资快报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券之星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾瑞网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券市场红周刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海有色网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国产经新闻网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新三板在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华讯财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同花顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞迅财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方都市报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大公财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资快报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德州之窗 8597</t>
+  </si>
+  <si>
+    <t>股城网 8542</t>
+  </si>
+  <si>
+    <t>中金在线论坛 8430</t>
+  </si>
+  <si>
+    <t>北国网 8412</t>
+  </si>
+  <si>
+    <t>中国山东网 8100</t>
+  </si>
+  <si>
+    <t>东莞阳光网 8090</t>
+  </si>
+  <si>
+    <t>江苏都市网 8073</t>
+  </si>
+  <si>
+    <t>西部网 8045</t>
+  </si>
+  <si>
+    <t>东营网论坛 8040</t>
+  </si>
+  <si>
+    <t>神州学人 8035</t>
+  </si>
+  <si>
+    <t>时代焦点网 8007</t>
+  </si>
+  <si>
+    <t>商洛之窗 7916</t>
+  </si>
+  <si>
+    <t>攀枝花网 7858</t>
+  </si>
+  <si>
+    <t>淄博新闻网 7606</t>
+  </si>
+  <si>
+    <t>中国兰州网 7540</t>
+  </si>
+  <si>
+    <t>华商网 7526</t>
+  </si>
+  <si>
+    <t>中国宁波网 7389</t>
+  </si>
+  <si>
+    <t>腾讯大渝网 7326</t>
+  </si>
+  <si>
+    <t>搜狐博客 7261</t>
+  </si>
+  <si>
+    <t>商企网 7023</t>
+  </si>
+  <si>
+    <t>今晚网 6899</t>
+  </si>
+  <si>
+    <t>人民网天津视窗 6887</t>
+  </si>
+  <si>
+    <t>南方网 6592</t>
+  </si>
+  <si>
+    <t>咸宁新闻网 6401</t>
+  </si>
+  <si>
+    <t>中国黄金投资网 6346</t>
+  </si>
+  <si>
+    <t>白银网 6267</t>
+  </si>
+  <si>
+    <t>新京报 6265</t>
+  </si>
+  <si>
+    <t>东方日报 6069</t>
+  </si>
+  <si>
+    <t>凤凰网湖北频道 5986</t>
+  </si>
+  <si>
+    <t>八桂网 5830</t>
+  </si>
+  <si>
+    <t>新浪博客 5796</t>
+  </si>
+  <si>
+    <t>中国时刻网 5790</t>
+  </si>
+  <si>
+    <t>云南在线 5752</t>
+  </si>
+  <si>
+    <t>青海羚网 5738</t>
+  </si>
+  <si>
+    <t>天津视窗 5523</t>
+  </si>
+  <si>
+    <t>胶东在线 5471</t>
+  </si>
+  <si>
+    <t>泗洪风情 5363</t>
+  </si>
+  <si>
+    <t>无锡新传媒网 5334</t>
+  </si>
+  <si>
+    <t>腾讯大浙网 5330</t>
+  </si>
+  <si>
+    <t>营口新闻网 5307</t>
+  </si>
+  <si>
+    <t>中新网江西新闻 5111</t>
+  </si>
+  <si>
+    <t>灰信网 5034</t>
+  </si>
+  <si>
+    <t>中工网 5031</t>
+  </si>
+  <si>
+    <t>乐云网 4933</t>
+  </si>
+  <si>
+    <t>博讯新闻网 4884</t>
+  </si>
+  <si>
+    <t>百家财富网 4817</t>
+  </si>
+  <si>
+    <t>厦门网 4815</t>
+  </si>
+  <si>
+    <t>阜新新网 4772</t>
+  </si>
+  <si>
+    <t>华股财经 4735</t>
+  </si>
+  <si>
+    <t>中国家家网 4705</t>
+  </si>
+  <si>
+    <t>海南网 4703</t>
+  </si>
+  <si>
+    <t>四川新闻网 4696</t>
+  </si>
+  <si>
+    <t>伊犁新闻网 4648</t>
+  </si>
+  <si>
+    <t>地宝网 4575</t>
+  </si>
+  <si>
+    <t>西江网 4521</t>
+  </si>
+  <si>
+    <t>日照网 4518</t>
+  </si>
+  <si>
+    <t>丽水网 4495</t>
+  </si>
+  <si>
+    <t>澳亚卫视 4421</t>
+  </si>
+  <si>
+    <t>内蒙古新闻网 4419</t>
+  </si>
+  <si>
+    <t>每日甘肃网 4419</t>
+  </si>
+  <si>
+    <t>腾讯大粤网 4394</t>
+  </si>
+  <si>
+    <t>陕西传媒网 4363</t>
+  </si>
+  <si>
+    <t>半岛新闻 4329</t>
+  </si>
+  <si>
+    <t>中国网福建 4314</t>
+  </si>
+  <si>
+    <t>中青网 4205</t>
+  </si>
+  <si>
+    <t>中国哈尔滨信息网 4177</t>
+  </si>
+  <si>
+    <t>财富赢家网 4157</t>
+  </si>
+  <si>
+    <t>西南信息港 4015</t>
+  </si>
+  <si>
+    <t>聊城新闻网 3959</t>
+  </si>
+  <si>
+    <t>海南在线 3934</t>
+  </si>
+  <si>
+    <t>腾讯大楚网 3918</t>
+  </si>
+  <si>
+    <t>联合早报网 3897</t>
+  </si>
+  <si>
+    <t>中国资本证券网 3877</t>
+  </si>
+  <si>
+    <t>财库股票网 3849</t>
+  </si>
+  <si>
+    <t>婺城新闻网 3784</t>
+  </si>
+  <si>
+    <t>今日新闻（台湾） 3769</t>
+  </si>
+  <si>
+    <t>四川广播电视台 3756</t>
+  </si>
+  <si>
+    <t>新北青网 3653</t>
+  </si>
+  <si>
+    <t>沈阳论坛 3511</t>
+  </si>
+  <si>
+    <t>ZAKER客户端 3489</t>
+  </si>
+  <si>
+    <t>福建新闻网 3400</t>
+  </si>
+  <si>
+    <t>西祠胡同 3229</t>
+  </si>
+  <si>
+    <t>南方网科技金融 3194</t>
+  </si>
+  <si>
+    <t>新浪山西 3189</t>
+  </si>
+  <si>
+    <t>东方早报网 3185</t>
+  </si>
+  <si>
+    <t>台海网 3171</t>
+  </si>
+  <si>
+    <t>湖北新闻网 3162</t>
+  </si>
+  <si>
+    <t>潍坊新闻网 3154</t>
+  </si>
+  <si>
+    <t>大参考论坛 3137</t>
+  </si>
+  <si>
+    <t>重庆之窗 3075</t>
+  </si>
+  <si>
+    <t>环首都网 3023</t>
+  </si>
+  <si>
+    <t>杭州网 3022</t>
+  </si>
+  <si>
+    <t>新疆龟兹网 3005</t>
+  </si>
+  <si>
+    <t>新华网山东频道 2942</t>
+  </si>
+  <si>
+    <t>新华网重庆频道 2938</t>
+  </si>
+  <si>
+    <t>特网 2895</t>
+  </si>
+  <si>
+    <t>韶关新闻网 2890</t>
+  </si>
+  <si>
+    <t>瑞安论坛 2849</t>
+  </si>
+  <si>
+    <t>凯迪社区 2848</t>
+  </si>
+  <si>
+    <t>新华网浙江频道 2828</t>
+  </si>
+  <si>
+    <t>东莞信息港 2827</t>
+  </si>
+  <si>
+    <t>星辰在线 2825</t>
+  </si>
+  <si>
+    <t>多维新闻网 2822</t>
+  </si>
+  <si>
+    <t>中评网 2818</t>
+  </si>
+  <si>
+    <t>BTV在线 2815</t>
+  </si>
+  <si>
+    <t>商业中国网 2750</t>
+  </si>
+  <si>
+    <t>极动感CTM 2685</t>
+  </si>
+  <si>
+    <t>江苏新闻网 2668</t>
+  </si>
+  <si>
+    <t>杭州日报 2640</t>
+  </si>
+  <si>
+    <t>深圳新闻网 2623</t>
+  </si>
+  <si>
+    <t>山西信合网 2584</t>
+  </si>
+  <si>
+    <t>盛大新闻网 2579</t>
+  </si>
+  <si>
+    <t>中山网 2561</t>
+  </si>
+  <si>
+    <t>新浪河南 2526</t>
+  </si>
+  <si>
+    <t>青海新闻网 2484</t>
+  </si>
+  <si>
+    <t>桐庐新闻网 2418</t>
+  </si>
+  <si>
+    <t>1M4新闻网 2407</t>
+  </si>
+  <si>
+    <t>和讯评论 2369</t>
+  </si>
+  <si>
+    <t>莱芜在线 2361</t>
+  </si>
+  <si>
+    <t>光通讯网 2357</t>
+  </si>
+  <si>
+    <t>广东电视台 2332</t>
+  </si>
+  <si>
+    <t>江苏音符 2329</t>
+  </si>
+  <si>
+    <t>新阳泉网 2313</t>
+  </si>
+  <si>
+    <t>威海信息港 2311</t>
+  </si>
+  <si>
+    <t>吐鲁番网 2289</t>
+  </si>
+  <si>
+    <t>大同新闻网 2288</t>
+  </si>
+  <si>
+    <t>世界服装鞋帽网 2275</t>
+  </si>
+  <si>
+    <t>龙虎网 2226</t>
+  </si>
+  <si>
+    <t>麒麟网 2219</t>
+  </si>
+  <si>
+    <t>西部商报网 2205</t>
+  </si>
+  <si>
+    <t>中国江门网 2196</t>
+  </si>
+  <si>
+    <t>大江论坛 2195</t>
+  </si>
+  <si>
+    <t>青岛新闻网 2155</t>
+  </si>
+  <si>
+    <t>东方论坛 2142</t>
+  </si>
+  <si>
+    <t>临沂信息港 2105</t>
+  </si>
+  <si>
+    <t>中国贸易新闻网 2099</t>
+  </si>
+  <si>
+    <t>梅州网 2082</t>
+  </si>
+  <si>
+    <t>重庆汇融网 2064</t>
+  </si>
+  <si>
+    <t>中国海事服务网 2052</t>
+  </si>
+  <si>
+    <t>华南网 2032</t>
+  </si>
+  <si>
+    <t>浙江在线 2011</t>
+  </si>
+  <si>
+    <t>宁波东方热线 2007</t>
+  </si>
+  <si>
+    <t>丹东新闻网 2006</t>
+  </si>
+  <si>
+    <t>香港文匯報 2004</t>
+  </si>
+  <si>
+    <t>香港成报 1995</t>
+  </si>
+  <si>
+    <t>每日甘肃 1940</t>
+  </si>
+  <si>
+    <t>重庆商报 1938</t>
+  </si>
+  <si>
+    <t>天津在线 1931</t>
+  </si>
+  <si>
+    <t>金华新闻网 1900</t>
+  </si>
+  <si>
+    <t>义乌新闻网 1876</t>
+  </si>
+  <si>
+    <t>北京农村商业银行 1872</t>
+  </si>
+  <si>
+    <t>新北京特色论坛 1865</t>
+  </si>
+  <si>
+    <t>浦江新闻网 1854</t>
+  </si>
+  <si>
+    <t>新民晚报 1834</t>
+  </si>
+  <si>
+    <t>京津网 1825</t>
+  </si>
+  <si>
+    <t>东北在线 1806</t>
+  </si>
+  <si>
+    <t>丹阳翼网论坛 1769</t>
+  </si>
+  <si>
+    <t>财经中国网 1766</t>
+  </si>
+  <si>
+    <t>半岛网 1762</t>
+  </si>
+  <si>
+    <t>武义新闻网 1758</t>
+  </si>
+  <si>
+    <t>中国广播网 1758</t>
+  </si>
+  <si>
+    <t>凤凰陕西 1756</t>
+  </si>
+  <si>
+    <t>石家庄新闻网 1748</t>
+  </si>
+  <si>
+    <t>平顶山新闻网 1739</t>
+  </si>
+  <si>
+    <t>古汉台网 1729</t>
+  </si>
+  <si>
+    <t>GOGO攀枝花 1713</t>
+  </si>
+  <si>
+    <t>华声在线 1674</t>
+  </si>
+  <si>
+    <t>和讯博客 1634</t>
+  </si>
+  <si>
+    <t>海南资讯 1626</t>
+  </si>
+  <si>
+    <t>中新网广西新闻 1611</t>
+  </si>
+  <si>
+    <t>慧博投研资讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财派网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联星空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国江苏网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方财富网股吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发展论坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞时间网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新民网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融界论坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安热线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱讯网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解放牛网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>益盟操盘手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中工网论坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温州网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">东方网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红豆社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天山网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经传多盈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财界网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淄博信息港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天涯社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国青年网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥一网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国质检网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安青网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西新闻网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿福台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海视窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南都市网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同花顺金融服务网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐鲁网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日头条客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">金华之窗 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">解放网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">广州都市网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">千华网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱芜热线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">沈阳网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中山视野网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智通财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格隆汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿思达克财经网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映象网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建之窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北新闻网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舜网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生意社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">北方网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新秦调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">齐鲁热线 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3G门户 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国甘肃网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">重庆晨网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">大众网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值中国网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">东南网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">牧野论坛 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大连在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">财富在线 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">淮北新闻网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">财急送网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中原网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中国债券信息网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东新闻网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">钢联资讯 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中安在线 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">上海热线 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">路透中文网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">西安网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芜湖新闻网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">水母网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">华龙网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">贵阳之窗网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">四川在线 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">新华报业网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">农博网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今讯网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">成网 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://finance.sina.com.cn/</t>
+  </si>
+  <si>
+    <t>新闻地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一财网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.yicai.com/news/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>和讯网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国经济网</t>
+    <t>华尔街见闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wallstreetcn.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wallstreetcn.com/news/global?from=home</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -291,960 +1256,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金融界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36氪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金融时报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京华网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>澎拜新闻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生意社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资快报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证券之星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凤凰财经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾瑞网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证券市场红周刊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海有色网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华尔街见闻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国产经新闻网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新三板在线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老虎财经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华讯财经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同花顺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞迅财经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方都市报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大公财经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资快报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德州之窗 8597</t>
-  </si>
-  <si>
-    <t>股城网 8542</t>
-  </si>
-  <si>
-    <t>中金在线论坛 8430</t>
-  </si>
-  <si>
-    <t>北国网 8412</t>
-  </si>
-  <si>
-    <t>中国山东网 8100</t>
-  </si>
-  <si>
-    <t>东莞阳光网 8090</t>
-  </si>
-  <si>
-    <t>江苏都市网 8073</t>
-  </si>
-  <si>
-    <t>西部网 8045</t>
-  </si>
-  <si>
-    <t>东营网论坛 8040</t>
-  </si>
-  <si>
-    <t>神州学人 8035</t>
-  </si>
-  <si>
-    <t>时代焦点网 8007</t>
-  </si>
-  <si>
-    <t>商洛之窗 7916</t>
-  </si>
-  <si>
-    <t>攀枝花网 7858</t>
-  </si>
-  <si>
-    <t>淄博新闻网 7606</t>
-  </si>
-  <si>
-    <t>中国兰州网 7540</t>
-  </si>
-  <si>
-    <t>华商网 7526</t>
-  </si>
-  <si>
-    <t>中国宁波网 7389</t>
-  </si>
-  <si>
-    <t>腾讯大渝网 7326</t>
-  </si>
-  <si>
-    <t>搜狐博客 7261</t>
-  </si>
-  <si>
-    <t>商企网 7023</t>
-  </si>
-  <si>
-    <t>今晚网 6899</t>
-  </si>
-  <si>
-    <t>人民网天津视窗 6887</t>
-  </si>
-  <si>
-    <t>南方网 6592</t>
-  </si>
-  <si>
-    <t>咸宁新闻网 6401</t>
-  </si>
-  <si>
-    <t>中国黄金投资网 6346</t>
-  </si>
-  <si>
-    <t>白银网 6267</t>
-  </si>
-  <si>
-    <t>新京报 6265</t>
-  </si>
-  <si>
-    <t>东方日报 6069</t>
-  </si>
-  <si>
-    <t>凤凰网湖北频道 5986</t>
-  </si>
-  <si>
-    <t>八桂网 5830</t>
-  </si>
-  <si>
-    <t>新浪博客 5796</t>
-  </si>
-  <si>
-    <t>中国时刻网 5790</t>
-  </si>
-  <si>
-    <t>云南在线 5752</t>
-  </si>
-  <si>
-    <t>青海羚网 5738</t>
-  </si>
-  <si>
-    <t>天津视窗 5523</t>
-  </si>
-  <si>
-    <t>胶东在线 5471</t>
-  </si>
-  <si>
-    <t>泗洪风情 5363</t>
-  </si>
-  <si>
-    <t>无锡新传媒网 5334</t>
-  </si>
-  <si>
-    <t>腾讯大浙网 5330</t>
-  </si>
-  <si>
-    <t>营口新闻网 5307</t>
-  </si>
-  <si>
-    <t>中新网江西新闻 5111</t>
-  </si>
-  <si>
-    <t>灰信网 5034</t>
-  </si>
-  <si>
-    <t>中工网 5031</t>
-  </si>
-  <si>
-    <t>乐云网 4933</t>
-  </si>
-  <si>
-    <t>博讯新闻网 4884</t>
-  </si>
-  <si>
-    <t>百家财富网 4817</t>
-  </si>
-  <si>
-    <t>厦门网 4815</t>
-  </si>
-  <si>
-    <t>阜新新网 4772</t>
-  </si>
-  <si>
-    <t>华股财经 4735</t>
-  </si>
-  <si>
-    <t>中国家家网 4705</t>
-  </si>
-  <si>
-    <t>海南网 4703</t>
-  </si>
-  <si>
-    <t>四川新闻网 4696</t>
-  </si>
-  <si>
-    <t>伊犁新闻网 4648</t>
-  </si>
-  <si>
-    <t>地宝网 4575</t>
-  </si>
-  <si>
-    <t>西江网 4521</t>
-  </si>
-  <si>
-    <t>日照网 4518</t>
-  </si>
-  <si>
-    <t>丽水网 4495</t>
-  </si>
-  <si>
-    <t>澳亚卫视 4421</t>
-  </si>
-  <si>
-    <t>内蒙古新闻网 4419</t>
-  </si>
-  <si>
-    <t>每日甘肃网 4419</t>
-  </si>
-  <si>
-    <t>腾讯大粤网 4394</t>
-  </si>
-  <si>
-    <t>陕西传媒网 4363</t>
-  </si>
-  <si>
-    <t>半岛新闻 4329</t>
-  </si>
-  <si>
-    <t>中国网福建 4314</t>
-  </si>
-  <si>
-    <t>中青网 4205</t>
-  </si>
-  <si>
-    <t>中国哈尔滨信息网 4177</t>
-  </si>
-  <si>
-    <t>财富赢家网 4157</t>
-  </si>
-  <si>
-    <t>西南信息港 4015</t>
-  </si>
-  <si>
-    <t>聊城新闻网 3959</t>
-  </si>
-  <si>
-    <t>海南在线 3934</t>
-  </si>
-  <si>
-    <t>腾讯大楚网 3918</t>
-  </si>
-  <si>
-    <t>联合早报网 3897</t>
-  </si>
-  <si>
-    <t>中国资本证券网 3877</t>
-  </si>
-  <si>
-    <t>财库股票网 3849</t>
-  </si>
-  <si>
-    <t>婺城新闻网 3784</t>
-  </si>
-  <si>
-    <t>今日新闻（台湾） 3769</t>
-  </si>
-  <si>
-    <t>四川广播电视台 3756</t>
-  </si>
-  <si>
-    <t>新北青网 3653</t>
-  </si>
-  <si>
-    <t>沈阳论坛 3511</t>
-  </si>
-  <si>
-    <t>ZAKER客户端 3489</t>
-  </si>
-  <si>
-    <t>福建新闻网 3400</t>
-  </si>
-  <si>
-    <t>西祠胡同 3229</t>
-  </si>
-  <si>
-    <t>南方网科技金融 3194</t>
-  </si>
-  <si>
-    <t>新浪山西 3189</t>
-  </si>
-  <si>
-    <t>东方早报网 3185</t>
-  </si>
-  <si>
-    <t>台海网 3171</t>
-  </si>
-  <si>
-    <t>湖北新闻网 3162</t>
-  </si>
-  <si>
-    <t>潍坊新闻网 3154</t>
-  </si>
-  <si>
-    <t>大参考论坛 3137</t>
-  </si>
-  <si>
-    <t>重庆之窗 3075</t>
-  </si>
-  <si>
-    <t>环首都网 3023</t>
-  </si>
-  <si>
-    <t>杭州网 3022</t>
-  </si>
-  <si>
-    <t>新疆龟兹网 3005</t>
-  </si>
-  <si>
-    <t>新华网山东频道 2942</t>
-  </si>
-  <si>
-    <t>新华网重庆频道 2938</t>
-  </si>
-  <si>
-    <t>特网 2895</t>
-  </si>
-  <si>
-    <t>韶关新闻网 2890</t>
-  </si>
-  <si>
-    <t>瑞安论坛 2849</t>
-  </si>
-  <si>
-    <t>凯迪社区 2848</t>
-  </si>
-  <si>
-    <t>新华网浙江频道 2828</t>
-  </si>
-  <si>
-    <t>东莞信息港 2827</t>
-  </si>
-  <si>
-    <t>星辰在线 2825</t>
-  </si>
-  <si>
-    <t>多维新闻网 2822</t>
-  </si>
-  <si>
-    <t>中评网 2818</t>
-  </si>
-  <si>
-    <t>BTV在线 2815</t>
-  </si>
-  <si>
-    <t>商业中国网 2750</t>
-  </si>
-  <si>
-    <t>极动感CTM 2685</t>
-  </si>
-  <si>
-    <t>江苏新闻网 2668</t>
-  </si>
-  <si>
-    <t>杭州日报 2640</t>
-  </si>
-  <si>
-    <t>深圳新闻网 2623</t>
-  </si>
-  <si>
-    <t>山西信合网 2584</t>
-  </si>
-  <si>
-    <t>盛大新闻网 2579</t>
-  </si>
-  <si>
-    <t>中山网 2561</t>
-  </si>
-  <si>
-    <t>新浪河南 2526</t>
-  </si>
-  <si>
-    <t>青海新闻网 2484</t>
-  </si>
-  <si>
-    <t>桐庐新闻网 2418</t>
-  </si>
-  <si>
-    <t>1M4新闻网 2407</t>
-  </si>
-  <si>
-    <t>和讯评论 2369</t>
-  </si>
-  <si>
-    <t>莱芜在线 2361</t>
-  </si>
-  <si>
-    <t>光通讯网 2357</t>
-  </si>
-  <si>
-    <t>广东电视台 2332</t>
-  </si>
-  <si>
-    <t>江苏音符 2329</t>
-  </si>
-  <si>
-    <t>新阳泉网 2313</t>
-  </si>
-  <si>
-    <t>威海信息港 2311</t>
-  </si>
-  <si>
-    <t>吐鲁番网 2289</t>
-  </si>
-  <si>
-    <t>大同新闻网 2288</t>
-  </si>
-  <si>
-    <t>世界服装鞋帽网 2275</t>
-  </si>
-  <si>
-    <t>龙虎网 2226</t>
-  </si>
-  <si>
-    <t>麒麟网 2219</t>
-  </si>
-  <si>
-    <t>西部商报网 2205</t>
-  </si>
-  <si>
-    <t>中国江门网 2196</t>
-  </si>
-  <si>
-    <t>大江论坛 2195</t>
-  </si>
-  <si>
-    <t>青岛新闻网 2155</t>
-  </si>
-  <si>
-    <t>东方论坛 2142</t>
-  </si>
-  <si>
-    <t>临沂信息港 2105</t>
-  </si>
-  <si>
-    <t>中国贸易新闻网 2099</t>
-  </si>
-  <si>
-    <t>梅州网 2082</t>
-  </si>
-  <si>
-    <t>重庆汇融网 2064</t>
-  </si>
-  <si>
-    <t>中国海事服务网 2052</t>
-  </si>
-  <si>
-    <t>华南网 2032</t>
-  </si>
-  <si>
-    <t>浙江在线 2011</t>
-  </si>
-  <si>
-    <t>宁波东方热线 2007</t>
-  </si>
-  <si>
-    <t>丹东新闻网 2006</t>
-  </si>
-  <si>
-    <t>香港文匯報 2004</t>
-  </si>
-  <si>
-    <t>香港成报 1995</t>
-  </si>
-  <si>
-    <t>每日甘肃 1940</t>
-  </si>
-  <si>
-    <t>重庆商报 1938</t>
-  </si>
-  <si>
-    <t>天津在线 1931</t>
-  </si>
-  <si>
-    <t>金华新闻网 1900</t>
-  </si>
-  <si>
-    <t>义乌新闻网 1876</t>
-  </si>
-  <si>
-    <t>北京农村商业银行 1872</t>
-  </si>
-  <si>
-    <t>新北京特色论坛 1865</t>
-  </si>
-  <si>
-    <t>浦江新闻网 1854</t>
-  </si>
-  <si>
-    <t>新民晚报 1834</t>
-  </si>
-  <si>
-    <t>京津网 1825</t>
-  </si>
-  <si>
-    <t>东北在线 1806</t>
-  </si>
-  <si>
-    <t>丹阳翼网论坛 1769</t>
-  </si>
-  <si>
-    <t>财经中国网 1766</t>
-  </si>
-  <si>
-    <t>半岛网 1762</t>
-  </si>
-  <si>
-    <t>武义新闻网 1758</t>
-  </si>
-  <si>
-    <t>中国广播网 1758</t>
-  </si>
-  <si>
-    <t>凤凰陕西 1756</t>
-  </si>
-  <si>
-    <t>石家庄新闻网 1748</t>
-  </si>
-  <si>
-    <t>平顶山新闻网 1739</t>
-  </si>
-  <si>
-    <t>古汉台网 1729</t>
-  </si>
-  <si>
-    <t>GOGO攀枝花 1713</t>
-  </si>
-  <si>
-    <t>华声在线 1674</t>
-  </si>
-  <si>
-    <t>和讯博客 1634</t>
-  </si>
-  <si>
-    <t>海南资讯 1626</t>
-  </si>
-  <si>
-    <t>中新网广西新闻 1611</t>
-  </si>
-  <si>
-    <t>慧博投研资讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财派网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>互联星空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国江苏网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方财富网股吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发展论坛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东莞时间网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新民网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金融界论坛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西安热线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱讯网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解放牛网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>益盟操盘手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长城网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中工网论坛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温州网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">东方网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红豆社区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天山网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经传多盈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财界网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淄博信息港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天涯社区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国青年网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥一网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国质检网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安青网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云南网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广西新闻网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿福台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海视窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海南都市网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同花顺金融服务网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>齐鲁网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日头条客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">金华之窗 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">解放网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">广州都市网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">千华网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莱芜热线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">沈阳网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">中山视野网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智通财经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格隆汇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿思达克财经网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>映象网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福建之窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东北新闻网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舜网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生意社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">北方网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新秦调查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">齐鲁热线 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3G门户 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国甘肃网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">重庆晨网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">大众网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价值中国网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">东南网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">牧野论坛 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大连在线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">财富在线 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">淮北新闻网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">财急送网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中原网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">中国债券信息网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东新闻网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">钢联资讯 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">中安在线 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">上海热线 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看天下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">路透中文网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">西安网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芜湖新闻网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">水母网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">华龙网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">贵阳之窗网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">四川在线 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">新华报业网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">农博网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">今讯网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">成网 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://finance.sina.com.cn/</t>
-  </si>
-  <si>
-    <t>新闻地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一财网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.yicai.com/news/</t>
+    <t>http://www.cnfol.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.cnfol.com/</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据已采集：第一页正常返回，分页的时候是返回的json
+现在处理的方案是 解析json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前只采集了首页：
+分页的时候 采集时候出了问题
+问题是 不知道如何进行下一页采集分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页采集，解析json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1396,7 +1430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1438,6 +1472,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1984,7 +2021,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -2018,15 +2055,16 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.109375" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" customWidth="1"/>
     <col min="3" max="3" width="71.5546875" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2034,10 +2072,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C1" t="s">
-        <v>347</v>
+        <v>344</v>
+      </c>
+      <c r="D1" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2057,7 +2098,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2115,203 +2156,227 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C27" t="s">
+        <v>353</v>
+      </c>
+      <c r="D27" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="34" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="43" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="B43" r:id="rId2"/>
+    <hyperlink ref="C43" r:id="rId3"/>
+    <hyperlink ref="B27" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2338,7 +2403,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>37</v>
@@ -2349,1247 +2414,1247 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/采集清单.xlsx
+++ b/采集清单.xlsx
@@ -1260,9 +1260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://news.cnfol.com/</t>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1278,7 +1275,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分页采集，解析json</t>
+    <t>http://news.cnfol.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据正常采集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1286,7 +1287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1374,6 +1375,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1430,7 +1439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1475,6 +1484,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2052,22 +2064,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" customWidth="1"/>
-    <col min="3" max="3" width="71.5546875" customWidth="1"/>
-    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2077,23 +2090,23 @@
       <c r="C1" t="s">
         <v>344</v>
       </c>
-      <c r="D1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>45</v>
       </c>
@@ -2101,212 +2114,213 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>345</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>351</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="C27" t="s">
-        <v>353</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="15" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>348</v>
       </c>
@@ -2316,31 +2330,32 @@
       <c r="C43" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="13"/>
+      <c r="E43" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>83</v>
       </c>
@@ -2377,8 +2392,10 @@
     <hyperlink ref="B43" r:id="rId2"/>
     <hyperlink ref="C43" r:id="rId3"/>
     <hyperlink ref="B27" r:id="rId4"/>
+    <hyperlink ref="C27" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/采集清单.xlsx
+++ b/采集清单.xlsx
@@ -1221,9 +1221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://finance.sina.com.cn/</t>
-  </si>
-  <si>
     <t>新闻地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1275,6 +1272,10 @@
   </si>
   <si>
     <t>https://wallstreetcn.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://finance.sina.com.cn/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2073,8 +2074,8 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2094,10 +2095,10 @@
         <v>342</v>
       </c>
       <c r="C1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2116,8 +2117,8 @@
       <c r="A4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
-        <v>343</v>
+      <c r="B4" s="13" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2177,13 +2178,13 @@
     </row>
     <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>346</v>
-      </c>
       <c r="E16" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2228,7 +2229,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2238,17 +2239,17 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>351</v>
-      </c>
       <c r="C27" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2328,17 +2329,17 @@
     </row>
     <row r="43" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>348</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>349</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2399,9 +2400,10 @@
     <hyperlink ref="C43" r:id="rId3"/>
     <hyperlink ref="B27" r:id="rId4"/>
     <hyperlink ref="C27" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/采集清单.xlsx
+++ b/采集清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" updateLinks="never" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="9108" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1-国家部委" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="361">
   <si>
     <t>媒体名单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1230,10 +1230,6 @@
   </si>
   <si>
     <t>http://www.yicai.com/news/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和讯网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1275,8 +1271,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://top.finance.sina.com.cn/ws/GetTopDataList.php?top_type=day&amp;top_cat=finance_0_suda&amp;top_time=20180410&amp;top_show_num=20&amp;top_order=DESC&amp;js_var=all_1_data&amp;get_new=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://finance.sina.com.cn/</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个json地址：http://top.finance.sina.com.cn/ws/GetTopDataList.php?top_type=day&amp;top_cat=finance_0_suda&amp;top_time=20180410&amp;top_show_num=20&amp;top_order=DESC&amp;js_var=all_1_data&amp;get_new=1
+第二个json地址：http://top.finance.sina.com.cn/ws/GetTopDataList.php?top_not_url=/ustock/&amp;top_type=day&amp;top_cat=finance_stock_conten_suda&amp;top_time=20180411&amp;top_show_num=10&amp;top_order=DESC&amp;get_new=1&amp;js_var=stock_1_data
+第三个json地址：http://top.finance.sina.com.cn/ws/GetTopDataList.php?top_type=day&amp;top_cat=finance_money_suda&amp;top_time=20180411&amp;top_show_num=10&amp;top_order=DESC&amp;get_new=1&amp;js_var=money_1_data
+第四个json地址：http://top.finance.sina.com.cn/ws/GetTopDataList.php?top_type=day&amp;top_cat=comment&amp;top_time=20180411&amp;top_show_num=10&amp;top_order=DESC&amp;js_var=comment_1_data&amp;chars=gbk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和讯网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.hexun.com/</t>
+  </si>
+  <si>
+    <t>http://www.hexun.com/</t>
   </si>
 </sst>
 </file>
@@ -2074,15 +2091,15 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.88671875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
   </cols>
@@ -2098,7 +2115,7 @@
         <v>343</v>
       </c>
       <c r="E1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2113,12 +2130,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>356</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2184,7 +2207,7 @@
         <v>345</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2229,7 +2252,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>346</v>
+        <v>358</v>
+      </c>
+      <c r="B25" t="s">
+        <v>360</v>
+      </c>
+      <c r="C25" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2239,17 +2268,17 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>350</v>
-      </c>
       <c r="C27" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2329,17 +2358,17 @@
     </row>
     <row r="43" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>347</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>348</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2401,9 +2430,10 @@
     <hyperlink ref="B27" r:id="rId4"/>
     <hyperlink ref="C27" r:id="rId5"/>
     <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/采集清单.xlsx
+++ b/采集清单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362">
   <si>
     <t>媒体名单</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>新华每日电讯</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/mrdx/</t>
   </si>
   <si>
     <t>新浪财经</t>
@@ -255,6 +258,9 @@
     <t>http://news.hexun.com/</t>
   </si>
   <si>
+    <t>暂时遇到问题</t>
+  </si>
+  <si>
     <t>中国经济网</t>
   </si>
   <si>
@@ -322,6 +328,10 @@
   </si>
   <si>
     <t>https://wallstreetcn.com/news/global?from=home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>中国产经新闻网</t>
@@ -1106,12 +1116,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1149,14 +1159,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1176,16 +1181,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1193,34 +1219,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1228,9 +1247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1245,25 +1264,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1275,30 +1278,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1306,20 +1304,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1340,7 +1331,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1352,37 +1439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,103 +1469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,13 +1493,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,13 +1534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1584,6 +1573,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1608,41 +1621,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1651,155 +1636,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1815,10 +1800,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1827,7 +1812,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1840,9 +1831,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2204,114 +2192,114 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.3333333333333" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="8.88333333333333" style="10"/>
+    <col min="1" max="1" width="21.3333333333333" style="12" customWidth="1"/>
+    <col min="2" max="16384" width="8.88333333333333" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2471,16 +2459,16 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="25.4416666666667" customWidth="1"/>
     <col min="2" max="2" width="35.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="41.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
     <col min="4" max="4" width="33.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
   </cols>
@@ -2506,312 +2494,322 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" ht="391.5" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="D4" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" ht="40.5" spans="1:5">
-      <c r="A16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="B16" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>76</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="A27" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="B27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" ht="42.6" customHeight="1" spans="1:5">
-      <c r="A43" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="A43" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="9" t="s">
-        <v>81</v>
+      <c r="B43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1" display="http://www.yicai.com/news/"/>
-    <hyperlink ref="B43" r:id="rId2" display="https://wallstreetcn.com/"/>
+    <hyperlink ref="B43" r:id="rId2" display="https://wallstreetcn.com/" tooltip="https://wallstreetcn.com/"/>
     <hyperlink ref="C43" r:id="rId3" display="https://wallstreetcn.com/news/global?from=home"/>
     <hyperlink ref="B27" r:id="rId4" display="http://www.cnfol.com/"/>
     <hyperlink ref="C27" r:id="rId5" display="http://news.cnfol.com/"/>
     <hyperlink ref="B4" r:id="rId6" display="http://finance.sina.com.cn/"/>
     <hyperlink ref="C4" r:id="rId7" display="http://top.finance.sina.com.cn/ws/GetTopDataList.php?top_type=day&amp;top_cat=finance_0_suda&amp;top_time=20180410&amp;top_show_num=20&amp;top_order=DESC&amp;js_var=all_1_data&amp;get_new=1"/>
-    <hyperlink ref="C25" r:id="rId8" display="http://news.hexun.com/"/>
+    <hyperlink ref="C25" r:id="rId8" display="http://news.hexun.com/" tooltip="http://news.hexun.com/"/>
+    <hyperlink ref="B25" r:id="rId9" display="http://www.hexun.com/"/>
+    <hyperlink ref="B3" r:id="rId10" display="http://www.xinhuanet.com/mrdx/"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2825,7 +2823,7 @@
   <dimension ref="A1:F251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="H216" sqref="H216"/>
     </sheetView>
@@ -2842,10 +2840,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F2" s="3">
         <v>0.18</v>
@@ -2853,1247 +2851,1247 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/采集清单.xlsx
+++ b/采集清单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372">
   <si>
     <t>媒体名单</t>
   </si>
@@ -154,7 +154,13 @@
     <t>新闻地址</t>
   </si>
   <si>
+    <t>采集相关地址</t>
+  </si>
+  <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>执行方式</t>
   </si>
   <si>
     <t>财经国家新闻网</t>
@@ -356,6 +362,40 @@
   </si>
   <si>
     <t>大公财经</t>
+  </si>
+  <si>
+    <t>http://www.stcn.com/</t>
+  </si>
+  <si>
+    <t>http://kuaixun.stcn.com/index.shtml</t>
+  </si>
+  <si>
+    <t>7*24小时滚动新闻</t>
+  </si>
+  <si>
+    <t>直接运行即可</t>
+  </si>
+  <si>
+    <t>财联社电报</t>
+  </si>
+  <si>
+    <t>https://www.cailianpress.com/</t>
+  </si>
+  <si>
+    <t>电报地址：
+https://www.cailianpress.com/nodeapi/telegraphs?refresh_type=0&amp;rn=20&amp;last_time=1523966102&amp;sign=2110213761676957120ba78c4006a847
+https://www.cailianpress.com/nodeapi/roll/get_update_roll_list?last_time=1523964668&amp;refresh_type=0&amp;rn=20&amp;sign=15ab9f9f9dac22b2ccd330e422482ed7
+题材地址：
+https://www.cailianpress.com/nodeapi/themes?page=1&amp;per_page=15&amp;sign=0e4623ca5466b8c11302dafa584891a2
+深度地址：
+消息推送接收到url:
+https://www.cailianpress.com/nodeapi/roll/get_update_roll_list?last_time=1523971693&amp;refresh_type=0&amp;rn=20&amp;sign=cdfffc0ee4652338a7ff0022eb373988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采集 内容
+电报，内参，题材，深度
+遇到问题  last_time 加载的时候怎么回事上一天的任意一个时间戳？未解决
+</t>
   </si>
   <si>
     <t>慧博投研资讯</t>
@@ -1117,11 +1157,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1167,17 +1207,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1204,17 +1244,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1234,13 +1296,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1248,23 +1303,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1278,16 +1333,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1296,15 +1351,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1331,7 +1378,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,13 +1516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,85 +1528,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,55 +1552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,15 +1596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1576,23 +1614,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1615,8 +1638,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1631,6 +1654,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1639,10 +1686,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1651,7 +1698,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1660,131 +1707,131 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1800,6 +1847,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
@@ -1821,8 +1871,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1830,7 +1886,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2192,17 +2248,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.3333333333333" style="12" customWidth="1"/>
-    <col min="2" max="16384" width="8.88333333333333" style="12"/>
+    <col min="1" max="1" width="21.3333333333333" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="8.88333333333333" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
@@ -2294,7 +2350,7 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2456,24 +2512,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="25.4416666666667" customWidth="1"/>
-    <col min="2" max="2" width="35.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
-    <col min="4" max="4" width="33.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="4" width="38.3833333333333" customWidth="1"/>
+    <col min="5" max="5" width="45.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2483,319 +2538,356 @@
       <c r="C1" t="s">
         <v>44</v>
       </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="391.5" spans="1:4">
-      <c r="A4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>52</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" ht="40.5" spans="1:5">
-      <c r="A16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="A16" s="7" t="s">
         <v>66</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="B25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>83</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" ht="42.6" customHeight="1" spans="1:5">
-      <c r="A43" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="A43" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="B43" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>83</v>
+      <c r="C43" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>112</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" ht="270" spans="1:5">
+      <c r="A54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2810,6 +2902,11 @@
     <hyperlink ref="C25" r:id="rId8" display="http://news.hexun.com/" tooltip="http://news.hexun.com/"/>
     <hyperlink ref="B25" r:id="rId9" display="http://www.hexun.com/"/>
     <hyperlink ref="B3" r:id="rId10" display="http://www.xinhuanet.com/mrdx/"/>
+    <hyperlink ref="B54" r:id="rId11" display="https://www.cailianpress.com/" tooltip="https://www.cailianpress.com/"/>
+    <hyperlink ref="B52" r:id="rId12"/>
+    <hyperlink ref="C52" r:id="rId13"/>
+    <hyperlink ref="B53" r:id="rId12" display="http://www.stcn.com/"/>
+    <hyperlink ref="C53" r:id="rId13" display="http://kuaixun.stcn.com/index.shtml"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2823,7 +2920,7 @@
   <dimension ref="A1:F251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="H216" sqref="H216"/>
     </sheetView>
@@ -2840,10 +2937,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F2" s="3">
         <v>0.18</v>
@@ -2851,1247 +2948,1247 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/采集清单.xlsx
+++ b/采集清单.xlsx
@@ -17,35 +17,246 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447">
   <si>
     <t>媒体名单</t>
   </si>
   <si>
+    <t>主页地址</t>
+  </si>
+  <si>
+    <t>子页地址</t>
+  </si>
+  <si>
+    <t>采集菜单</t>
+  </si>
+  <si>
+    <t>请求头参数</t>
+  </si>
+  <si>
+    <t>是否隔天执行</t>
+  </si>
+  <si>
+    <t>遇到的问题</t>
+  </si>
+  <si>
+    <t>解决方案</t>
+  </si>
+  <si>
+    <t>爬虫名</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>表名</t>
+  </si>
+  <si>
+    <t>采集条数(单位：条)</t>
+  </si>
+  <si>
     <t>证监会</t>
   </si>
   <si>
+    <t>http://www.csrc.gov.cn/pub/newsite/</t>
+  </si>
+  <si>
+    <t>http://www.csrc.gov.cn/pub/newsite/zjhxwfb/gwyzcxx/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证监会要闻
+http://www.csrc.gov.cn/pub/newsite/zjhxwfb/xwdd/index_n.html
+新闻发布会
+http://www.csrc.gov.cn/pub/newsite/zjhxwfb/xwfbh/index_n.html
+时政要闻[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂时未采集，数据格式不同]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>不需要，只需要隔段时间
+执行一次就可以了</t>
+  </si>
+  <si>
+    <t>有数据是空的，这个地方需要核实</t>
+  </si>
+  <si>
+    <t>zhengquanhui</t>
+  </si>
+  <si>
+    <t>采集完成</t>
+  </si>
+  <si>
+    <t>zhengjianhui</t>
+  </si>
+  <si>
     <t>央行</t>
   </si>
   <si>
+    <t>http://www.pbc.gov.cn/</t>
+  </si>
+  <si>
+    <t>http://www.pbc.gov.cn/goutongjiaoliu/113456/113469/index.html</t>
+  </si>
+  <si>
+    <t>新闻发布：
+http://www.pbc.gov.cn/goutongjiaoliu/113456/113469/11040/indexn.html</t>
+  </si>
+  <si>
+    <t>采集花了几个小时，发现自己进入了一个误区，
+通过scrapy 请求 返回的response.body是空的，没有数据，
+导致页面解析一直是空</t>
+  </si>
+  <si>
+    <t>未解决</t>
+  </si>
+  <si>
+    <t>yanghang</t>
+  </si>
+  <si>
+    <t>未采集</t>
+  </si>
+  <si>
     <t>银监会</t>
   </si>
   <si>
+    <t>http://www.cbrc.gov.cn/chinese/newIndex.html</t>
+  </si>
+  <si>
+    <t>http://www.cbrc.gov.cn/chinese/newListDoc/111002/1.html</t>
+  </si>
+  <si>
+    <t>最新更新：
+http://www.cbrc.gov.cn/chinese/newListDoc/111002/1.html</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>yingjianhui</t>
+  </si>
+  <si>
+    <t>采集完成(7条数据)</t>
+  </si>
+  <si>
     <t>保监会</t>
   </si>
   <si>
+    <t>跟上面银监会一样</t>
+  </si>
+  <si>
     <t>统计局</t>
   </si>
   <si>
+    <t>http://www.stats.gov.cn/</t>
+  </si>
+  <si>
+    <t>http://www.stats.gov.cn/tjsj/zxfb/</t>
+  </si>
+  <si>
+    <t>最新发布：
+http://www.stats.gov.cn/tjsj/zxfb/index_n.html</t>
+  </si>
+  <si>
+    <t>采集的时候，一页只采集到11条数据，明明有20条数据，
+之后查看，发现href有两种，一种是"."开头，另一种则不是"."
+开头</t>
+  </si>
+  <si>
+    <t>已解决
+解决方案：首先
+找出首位是否包含"."re.match("\..*?",url)
+如果包含 则去掉
+str[1:]
+去掉超链接前面的"."</t>
+  </si>
+  <si>
+    <t>tongjiju</t>
+  </si>
+  <si>
     <t>外汇管理局</t>
   </si>
   <si>
+    <t>http://www.safe.gov.cn/</t>
+  </si>
+  <si>
+    <t>http://www.safe.gov.cn/wps/portal/sy/szyw
+http://www.safe.gov.cn/wps/portal/sy/whxw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">时政要闻：
+http://www.safe.gov.cn/wps/portal/sy/szyw
+外汇要闻：
+http://www.safe.gov.cn/wps/portal/sy/whxw
+</t>
+  </si>
+  <si>
+    <t>页面参数加密，</t>
+  </si>
+  <si>
     <t>财政部</t>
   </si>
   <si>
+    <t>http://www.mof.gov.cn/index.htm</t>
+  </si>
+  <si>
+    <t>http://www.mof.gov.cn/zhengwuxinxi/caizhengxinwen/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">财政新闻：
+http://www.mof.gov.cn/zhengwuxinxi/caizhengxinwen/index_n.htm
+</t>
+  </si>
+  <si>
+    <t>遇到问题：
+发现href有两种，一种是"."开头，
+一种是"../../",另一种则不是"."
+开头</t>
+  </si>
+  <si>
+    <t>已解决
+用正则表达式
+匹配re.search('../../(.*)')
+result.group(1)得到结果</t>
+  </si>
+  <si>
     <t>发改委</t>
   </si>
   <si>
+    <t>http://www.ndrc.gov.cn/</t>
+  </si>
+  <si>
+    <t>http://www.ndrc.gov.cn/govszyw/</t>
+  </si>
+  <si>
+    <t>事要新闻：
+http://www.ndrc.gov.cn/govszyw/index_n.html</t>
+  </si>
+  <si>
     <t>工信部</t>
   </si>
   <si>
@@ -148,19 +359,10 @@
     <t>基金业协会</t>
   </si>
   <si>
-    <t>主页地址</t>
-  </si>
-  <si>
-    <t>新闻地址</t>
-  </si>
-  <si>
-    <t>采集相关地址</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>执行方式</t>
+    <t>页面分析</t>
+  </si>
+  <si>
+    <t>采集状态</t>
   </si>
   <si>
     <t>财经国家新闻网</t>
@@ -178,7 +380,8 @@
     <t>http://finance.sina.com.cn/</t>
   </si>
   <si>
-    <t>http://top.finance.sina.com.cn/ws/GetTopDataList.php?top_type=day&amp;top_cat=finance_0_suda&amp;top_time=20180410&amp;top_show_num=20&amp;top_order=DESC&amp;js_var=all_1_data&amp;get_new=1</t>
+    <t>http://top.finance.sina.com.cn/ws/GetTopDataList.php?top_type=day&amp;top_cat=finance_0_suda&amp;top_time=20180410
+&amp;top_show_num=20&amp;top_order=DESC&amp;js_var=all_1_data&amp;get_new=1</t>
   </si>
   <si>
     <t>第一个json地址：http://top.finance.sina.com.cn/ws/GetTopDataList.php?top_type=day&amp;top_cat=finance_0_suda&amp;top_time=20180410&amp;top_show_num=20&amp;top_order=DESC&amp;js_var=all_1_data&amp;get_new=1
@@ -253,6 +456,15 @@
   </si>
   <si>
     <t>东方财富网</t>
+  </si>
+  <si>
+    <t>http://www.eastmoney.com/</t>
+  </si>
+  <si>
+    <t>http://finance.eastmoney.com/yaowen.html</t>
+  </si>
+  <si>
+    <t>分页，加载更多，用的是js</t>
   </si>
   <si>
     <t>和讯网</t>
@@ -398,6 +610,92 @@
 </t>
   </si>
   <si>
+    <t>http://stock.10jqka.com.cn/gsyw_list/</t>
+  </si>
+  <si>
+    <t>http://stock.10jqka.com.cn/stocknews_list/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要闻：
+http://stock.10jqka.com.cn/stocknews_list/index_n.shtml
+</t>
+  </si>
+  <si>
+    <t>遇到问题，未采集</t>
+  </si>
+  <si>
+    <t>中财网</t>
+  </si>
+  <si>
+    <t>http://capital.cfi.cn/</t>
+  </si>
+  <si>
+    <t>中证热点网</t>
+  </si>
+  <si>
+    <t>http://www.csstock.cn/zqyw</t>
+  </si>
+  <si>
+    <t>http://www.csstock.cn/cjyw</t>
+  </si>
+  <si>
+    <t>财经要闻：
+http://www.csstock.cn/cjyw?page=n</t>
+  </si>
+  <si>
+    <t>采集了2000条</t>
+  </si>
+  <si>
+    <t>新浪网</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/roll/#pageid=153&amp;lid=2509&amp;k=&amp;num=50&amp;page=1</t>
+  </si>
+  <si>
+    <t>滚动新闻：</t>
+  </si>
+  <si>
+    <t>http://news.stcn.com/</t>
+  </si>
+  <si>
+    <t>中国橡胶网</t>
+  </si>
+  <si>
+    <t>http://www.cria.org.cn/</t>
+  </si>
+  <si>
+    <t>http://www.cria.org.cn/news</t>
+  </si>
+  <si>
+    <t>新闻</t>
+  </si>
+  <si>
+    <t>http://finance.jrj.com.cn/</t>
+  </si>
+  <si>
+    <t>7*24要闻：调用接口返回json数据</t>
+  </si>
+  <si>
+    <t>7*24要闻：
+url:http://finance.jrj.com.cn/yaowen/
+http://stock.jrj.com.cn/share/news/yaowen/2018-04-21.js?_=1524454389303
+宏观经济：
+url:http://finance.jrj.com.cn/list/guoneicj.shtml
+api:
+http://finance.jrj.com.cn/list/guoneicj-n.shtml
+国际经济：
+http://finance.jrj.com.cn/list/guojicj-n.shtml
+产经新闻:
+http://finance.jrj.com.cn/list/industrynews-2.shtml
+资本市场</t>
+  </si>
+  <si>
+    <t>7*24要闻 每天都要执行</t>
+  </si>
+  <si>
     <t>慧博投研资讯</t>
   </si>
   <si>
@@ -1156,12 +1454,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1192,13 +1490,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1209,6 +1500,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1230,58 +1535,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1296,7 +1550,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1310,16 +1631,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1333,9 +1647,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1343,18 +1656,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1378,7 +1695,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,55 +1803,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,7 +1833,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1480,61 +1845,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,13 +1863,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1581,17 +1898,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1615,42 +1961,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1670,11 +1981,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1686,10 +2003,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1698,16 +2015,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1716,178 +2033,220 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2238,131 +2597,497 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.3333333333333" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="8.88333333333333" style="5"/>
+    <col min="1" max="1" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="3" max="4" width="24.4083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.55" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.75" style="1" customWidth="1"/>
+    <col min="7" max="8" width="28.9666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88333333333333" style="1"/>
+    <col min="11" max="11" width="14.4083333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.4083333333333" style="23" customWidth="1"/>
+    <col min="13" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
+    <row r="2" ht="148.5" spans="1:12">
+      <c r="A2" s="24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="B2" s="25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
+      <c r="C2" s="25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
+      <c r="D2" s="26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
+      <c r="G2" s="28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="18" t="s">
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="L2" s="23">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:11">
+      <c r="A3" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="1:12">
+      <c r="A4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" ht="94.5" spans="1:11">
+      <c r="A6" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" ht="108" spans="1:11">
+      <c r="A7" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" ht="81" spans="1:11">
+      <c r="A8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" ht="40.5" spans="1:11">
+      <c r="A9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A19" r:id="rId1" display="环保总局"/>
     <hyperlink ref="A21" r:id="rId2" display="能源局"/>
+    <hyperlink ref="B2" r:id="rId3" display="http://www.csrc.gov.cn/pub/newsite/"/>
+    <hyperlink ref="C2" r:id="rId4" display="http://www.csrc.gov.cn/pub/newsite/zjhxwfb/gwyzcxx/"/>
+    <hyperlink ref="B3" r:id="rId5" display="http://www.pbc.gov.cn/"/>
+    <hyperlink ref="C3" r:id="rId6" display="http://www.pbc.gov.cn/goutongjiaoliu/113456/113469/index.html" tooltip="http://www.pbc.gov.cn/goutongjiaoliu/113456/113469/index.html"/>
+    <hyperlink ref="B4" r:id="rId7" display="http://www.cbrc.gov.cn/chinese/newIndex.html"/>
+    <hyperlink ref="C4" r:id="rId8" display="http://www.cbrc.gov.cn/chinese/newListDoc/111002/1.html"/>
+    <hyperlink ref="B6" r:id="rId9" display="http://www.stats.gov.cn/"/>
+    <hyperlink ref="B7" r:id="rId10" display="http://www.safe.gov.cn/" tooltip="http://www.safe.gov.cn/"/>
+    <hyperlink ref="C7" r:id="rId11" display="http://www.safe.gov.cn/wps/portal/sy/szyw&#10;http://www.safe.gov.cn/wps/portal/sy/whxw"/>
+    <hyperlink ref="C6" r:id="rId12" display="http://www.stats.gov.cn/tjsj/zxfb/"/>
+    <hyperlink ref="B8" r:id="rId13" display="http://www.mof.gov.cn/index.htm"/>
+    <hyperlink ref="C8" r:id="rId14" display="http://www.mof.gov.cn/zhengwuxinxi/caizhengxinwen/"/>
+    <hyperlink ref="B9" r:id="rId15" display="http://www.ndrc.gov.cn/"/>
+    <hyperlink ref="C9" r:id="rId16" display="http://www.ndrc.gov.cn/govszyw/"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -2373,134 +3098,167 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
+      <c r="A3" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
-        <v>24</v>
+      <c r="A5" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
+      <c r="A6" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
+      <c r="A7" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
+      <c r="A8" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>28</v>
+      <c r="A9" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
-        <v>29</v>
+      <c r="A10" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
+      <c r="A11" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
-        <v>31</v>
+      <c r="A12" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
+      <c r="A13" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
+      <c r="A14" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
-        <v>34</v>
+      <c r="A15" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
-        <v>35</v>
+      <c r="A16" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
-        <v>36</v>
+      <c r="A17" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
-        <v>37</v>
+      <c r="A18" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
-        <v>38</v>
+      <c r="A19" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="4" t="s">
-        <v>39</v>
+      <c r="A20" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
-        <v>40</v>
+      <c r="A21" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
-        <v>41</v>
+      <c r="A22" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
+      <c r="A23" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2512,383 +3270,565 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.4416666666667" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="4" width="38.3833333333333" customWidth="1"/>
-    <col min="5" max="5" width="45.1416666666667" customWidth="1"/>
+    <col min="3" max="3" width="17.3416666666667" customWidth="1"/>
+    <col min="4" max="4" width="19.85" customWidth="1"/>
+    <col min="5" max="5" width="19.85" customWidth="1"/>
+    <col min="6" max="6" width="21.6166666666667" customWidth="1"/>
+    <col min="7" max="7" width="20.725" customWidth="1"/>
+    <col min="13" max="13" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" ht="391.5" spans="1:4">
-      <c r="A4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>54</v>
+      <c r="A3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" ht="409.5" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
-        <v>55</v>
+      <c r="A5" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>56</v>
+      <c r="A6" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>57</v>
+      <c r="A7" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>58</v>
+      <c r="A8" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
-        <v>60</v>
+      <c r="A9" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
-        <v>61</v>
+      <c r="A11" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
-        <v>62</v>
+      <c r="A12" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
-        <v>63</v>
+      <c r="A13" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
-        <v>64</v>
+      <c r="A14" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" ht="40.5" spans="1:5">
-      <c r="A16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>68</v>
+      <c r="A15" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" ht="67.5" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
-        <v>69</v>
+      <c r="A17" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
-        <v>70</v>
+      <c r="A18" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
-        <v>71</v>
+      <c r="A19" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="4" t="s">
-        <v>72</v>
+      <c r="A20" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
-        <v>73</v>
+      <c r="A21" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
-        <v>74</v>
+      <c r="A22" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" t="s">
-        <v>80</v>
+      <c r="A23" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25"/>
+      <c r="H25" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="9" t="s">
-        <v>85</v>
+      <c r="A26" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="K27" s="21" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
-        <v>86</v>
+      <c r="A28" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:1">
+      <c r="A34" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" ht="42.6" customHeight="1" spans="1:11">
+      <c r="A43" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" t="s">
+        <v>166</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" ht="409.5" spans="1:6">
+      <c r="A54" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" ht="67.5" spans="1:6">
+      <c r="A55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" t="s">
+        <v>175</v>
+      </c>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" ht="40.5" spans="1:11">
+      <c r="A57" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F57"/>
+      <c r="G57" s="19"/>
+      <c r="K57" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" t="s">
+        <v>186</v>
+      </c>
+      <c r="E58" t="s">
+        <v>186</v>
+      </c>
+      <c r="G58" s="19"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:1">
-      <c r="A34" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" ht="42.6" customHeight="1" spans="1:5">
-      <c r="A43" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F53" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" ht="270" spans="1:5">
-      <c r="A54" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>120</v>
-      </c>
+      <c r="B59" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G59" s="19"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" t="s">
+        <v>191</v>
+      </c>
+      <c r="G60" s="19"/>
+    </row>
+    <row r="61" ht="337.5" spans="1:7">
+      <c r="A61" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="7:7">
+      <c r="G62" s="19"/>
+    </row>
+    <row r="63" spans="7:7">
+      <c r="G63" s="19"/>
+    </row>
+    <row r="64" spans="7:7">
+      <c r="G64" s="19"/>
+    </row>
+    <row r="65" spans="7:7">
+      <c r="G65" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2898,7 +3838,7 @@
     <hyperlink ref="B27" r:id="rId4" display="http://www.cnfol.com/"/>
     <hyperlink ref="C27" r:id="rId5" display="http://news.cnfol.com/"/>
     <hyperlink ref="B4" r:id="rId6" display="http://finance.sina.com.cn/"/>
-    <hyperlink ref="C4" r:id="rId7" display="http://top.finance.sina.com.cn/ws/GetTopDataList.php?top_type=day&amp;top_cat=finance_0_suda&amp;top_time=20180410&amp;top_show_num=20&amp;top_order=DESC&amp;js_var=all_1_data&amp;get_new=1"/>
+    <hyperlink ref="C4" r:id="rId7" display="http://top.finance.sina.com.cn/ws/GetTopDataList.php?top_type=day&amp;top_cat=finance_0_suda&amp;top_time=20180410&#10;&amp;top_show_num=20&amp;top_order=DESC&amp;js_var=all_1_data&amp;get_new=1"/>
     <hyperlink ref="C25" r:id="rId8" display="http://news.hexun.com/" tooltip="http://news.hexun.com/"/>
     <hyperlink ref="B25" r:id="rId9" display="http://www.hexun.com/"/>
     <hyperlink ref="B3" r:id="rId10" display="http://www.xinhuanet.com/mrdx/"/>
@@ -2907,6 +3847,19 @@
     <hyperlink ref="C52" r:id="rId13"/>
     <hyperlink ref="B53" r:id="rId12" display="http://www.stcn.com/"/>
     <hyperlink ref="C53" r:id="rId13" display="http://kuaixun.stcn.com/index.shtml"/>
+    <hyperlink ref="B55" r:id="rId14" display="http://stock.10jqka.com.cn/gsyw_list/"/>
+    <hyperlink ref="C55" r:id="rId15" display="http://stock.10jqka.com.cn/stocknews_list/"/>
+    <hyperlink ref="B56" r:id="rId16" display="http://capital.cfi.cn/"/>
+    <hyperlink ref="B57" r:id="rId17" display="http://www.csstock.cn/zqyw"/>
+    <hyperlink ref="B58" r:id="rId18" display="http://news.sina.com.cn/"/>
+    <hyperlink ref="C58" r:id="rId19" display="http://news.sina.com.cn/roll/#pageid=153&amp;lid=2509&amp;k=&amp;num=50&amp;page=1"/>
+    <hyperlink ref="B24" r:id="rId20" display="http://www.eastmoney.com/"/>
+    <hyperlink ref="C24" r:id="rId21" display="http://finance.eastmoney.com/yaowen.html"/>
+    <hyperlink ref="B59" r:id="rId12" display="http://www.stcn.com/"/>
+    <hyperlink ref="C59" r:id="rId22" display="http://news.stcn.com/"/>
+    <hyperlink ref="B60" r:id="rId23" display="http://www.cria.org.cn/"/>
+    <hyperlink ref="C60" r:id="rId24" display="http://www.cria.org.cn/news"/>
+    <hyperlink ref="B61" r:id="rId25" display="http://finance.jrj.com.cn/"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2917,1278 +3870,1311 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F251"/>
+  <dimension ref="A1:L251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H216" sqref="H216"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="3">
+        <v>196</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.18</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>190</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>191</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>192</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>193</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>195</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>197</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>198</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>201</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>202</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>203</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>204</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>205</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>206</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>208</v>
+        <v>283</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>209</v>
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>211</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>212</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>213</v>
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>214</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>215</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>216</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>217</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>218</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>220</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>222</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>223</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>224</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>225</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>226</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>227</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>231</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>232</v>
+        <v>307</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>237</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>238</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>239</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>240</v>
+        <v>315</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>241</v>
+        <v>316</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>242</v>
+        <v>317</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>243</v>
+        <v>318</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>245</v>
+        <v>320</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>247</v>
+        <v>322</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>248</v>
+        <v>323</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>249</v>
+        <v>324</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>250</v>
+        <v>325</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>251</v>
+        <v>326</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>253</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>254</v>
+        <v>329</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>255</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>256</v>
+        <v>331</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>257</v>
+        <v>332</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>258</v>
+        <v>333</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>260</v>
+        <v>335</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>261</v>
+        <v>336</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>265</v>
+        <v>340</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>266</v>
+        <v>341</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>267</v>
+        <v>342</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>268</v>
+        <v>343</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>269</v>
+        <v>344</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>270</v>
+        <v>345</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>272</v>
+        <v>347</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>273</v>
+        <v>348</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>274</v>
+        <v>349</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>275</v>
+        <v>350</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>276</v>
+        <v>351</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>277</v>
+        <v>352</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>278</v>
+        <v>353</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>279</v>
+        <v>354</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>280</v>
+        <v>355</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>281</v>
+        <v>356</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>282</v>
+        <v>357</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>283</v>
+        <v>358</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>284</v>
+        <v>359</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>285</v>
+        <v>360</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>286</v>
+        <v>361</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>287</v>
+        <v>362</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>288</v>
+        <v>363</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>289</v>
+        <v>364</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>290</v>
+        <v>365</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>291</v>
+        <v>366</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>292</v>
+        <v>367</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>293</v>
+        <v>368</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>296</v>
+        <v>371</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>297</v>
+        <v>372</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>298</v>
+        <v>373</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>299</v>
+        <v>374</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>300</v>
+        <v>375</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>302</v>
+        <v>377</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>303</v>
+        <v>378</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>304</v>
+        <v>379</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>305</v>
+        <v>380</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>306</v>
+        <v>381</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>307</v>
+        <v>382</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>308</v>
+        <v>383</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>309</v>
+        <v>384</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>310</v>
+        <v>385</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>311</v>
+        <v>386</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>312</v>
+        <v>387</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>313</v>
+        <v>388</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>314</v>
+        <v>389</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>315</v>
+        <v>390</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>316</v>
+        <v>391</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>317</v>
+        <v>392</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>318</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>320</v>
+        <v>395</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>321</v>
+        <v>396</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>322</v>
+        <v>397</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>323</v>
+        <v>398</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>324</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>325</v>
+        <v>400</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>326</v>
+        <v>401</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>327</v>
+        <v>402</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>328</v>
+        <v>403</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>329</v>
+        <v>404</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>330</v>
+        <v>405</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>332</v>
+        <v>407</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>333</v>
+        <v>408</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>334</v>
+        <v>409</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>335</v>
+        <v>410</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>336</v>
+        <v>411</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>337</v>
+        <v>412</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>339</v>
+        <v>414</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>340</v>
+        <v>415</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>341</v>
+        <v>416</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>342</v>
+        <v>417</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>343</v>
+        <v>418</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>344</v>
+        <v>419</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>345</v>
+        <v>420</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>346</v>
+        <v>421</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>347</v>
+        <v>422</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>348</v>
+        <v>423</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>349</v>
+        <v>424</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>350</v>
+        <v>425</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>351</v>
+        <v>426</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>352</v>
+        <v>427</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>354</v>
+        <v>429</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>355</v>
+        <v>430</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>356</v>
+        <v>431</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>357</v>
+        <v>432</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>359</v>
+        <v>434</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>360</v>
+        <v>435</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>361</v>
+        <v>436</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>362</v>
+        <v>437</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>363</v>
+        <v>438</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>364</v>
+        <v>439</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>365</v>
+        <v>440</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>366</v>
+        <v>441</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>368</v>
+        <v>443</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>369</v>
+        <v>444</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>370</v>
+        <v>445</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>371</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
